--- a/Model Dimensional/Bus_Matrix_Kel5.xlsx
+++ b/Model Dimensional/Bus_Matrix_Kel5.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Griselda dachi\OneDrive\Dokumen\052_Griselda\Sem 6\DWBI\Proyek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\DWBI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03243F67-8188-4C37-8E31-F6D4298FBD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12A78AB-907F-430F-A6BB-03A44A742774}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3260" yWindow="2840" windowWidth="14400" windowHeight="7360" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="5" r:id="rId1"/>
     <sheet name="Detailed Bus Matrix" sheetId="3" r:id="rId2"/>
     <sheet name="Attributes &amp; Metrics" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
   <si>
     <t>Description</t>
   </si>
@@ -275,15 +275,9 @@
     <t>DimLocation</t>
   </si>
   <si>
-    <t>backers_count, pledged, goal, currency</t>
-  </si>
-  <si>
     <t>DimCategory</t>
   </si>
   <si>
-    <t>DimState</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -432,6 +426,30 @@
   </si>
   <si>
     <t>Sabtu, 31 Oktober 2015 pukul 01:32:08 UTC</t>
+  </si>
+  <si>
+    <t>backers_count, pledged, goal</t>
+  </si>
+  <si>
+    <t>date_id</t>
+  </si>
+  <si>
+    <t>ID tanggal pembuatan proyek</t>
+  </si>
+  <si>
+    <t>ID Tanggal</t>
+  </si>
+  <si>
+    <t>DimProject</t>
+  </si>
+  <si>
+    <t>project_id</t>
+  </si>
+  <si>
+    <t>ID proyek</t>
+  </si>
+  <si>
+    <t>ID Proyek</t>
   </si>
 </sst>
 </file>
@@ -536,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -569,9 +587,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -586,21 +601,30 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1353,9 +1377,9 @@
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="16384" width="9.08984375" style="2"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1370,32 +1394,32 @@
   </sheetPr>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="121" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O17" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.08984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="41.5546875" style="1" customWidth="1"/>
-    <col min="6" max="8" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="3.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="3" max="3" width="22.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.54296875" style="1" customWidth="1"/>
+    <col min="6" max="8" width="3.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="3.6328125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="3.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="64" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -1412,10 +1436,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>15</v>
@@ -1424,13 +1448,13 @@
         <v>16</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>11</v>
       </c>
@@ -1444,28 +1468,28 @@
         <v>14</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1480,7 +1504,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1495,7 +1519,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1510,7 +1534,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1525,7 +1549,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1540,7 +1564,7 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1555,7 +1579,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1570,7 +1594,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1585,7 +1609,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1600,7 +1624,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1615,7 +1639,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1630,7 +1654,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1645,7 +1669,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1660,7 +1684,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1675,7 +1699,7 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1690,7 +1714,7 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1705,7 +1729,7 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1732,29 +1756,29 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.88671875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.21875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="10"/>
+    <col min="1" max="1" width="33.90625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="23.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="23.36328125" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="9.08984375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
@@ -1771,608 +1795,640 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="28"/>
+      <c r="B4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="27">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="28"/>
+      <c r="B6" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="28"/>
+      <c r="B7" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="28"/>
+      <c r="B8" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="28"/>
+      <c r="B10" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="28"/>
+      <c r="B12" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D12" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="28"/>
+      <c r="B13" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E13" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="28"/>
+      <c r="B14" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="26" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="24" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="27">
+        <v>26780</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="28"/>
+      <c r="B16" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="28"/>
+      <c r="B17" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="21" t="s">
+      <c r="C17" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="20"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="20"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="18"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="19"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="16"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="12"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
     </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A17"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A5:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
